--- a/Magicbricks/TestData/InputData.xlsx
+++ b/Magicbricks/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\180981\source\repos\SDET_SELENIUM_MODULE2\Magicbricks\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D8CAB-6271-497C-BE57-BEAB1FDFD193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E042F-5281-4114-97DB-F268358128F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>searchCity</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>Ajax99@!</t>
+  </si>
+  <si>
+    <t>rentAmount</t>
+  </si>
+  <si>
+    <t>propaddress</t>
+  </si>
+  <si>
+    <t>ABC Nagar</t>
+  </si>
+  <si>
+    <t>Ajith</t>
+  </si>
+  <si>
+    <t>landownername</t>
   </si>
 </sst>
 </file>
@@ -371,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -383,7 +398,7 @@
     <col min="6" max="6" width="9.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +414,17 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,6 +439,15 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Magicbricks/TestData/InputData.xlsx
+++ b/Magicbricks/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\180981\source\repos\SDET_SELENIUM_MODULE2\Magicbricks\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E042F-5281-4114-97DB-F268358128F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD93AF-9F79-4153-BF62-548A3E5810FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="2640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>searchCity</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>landownername</t>
+  </si>
+  <si>
+    <t>questionInput</t>
+  </si>
+  <si>
+    <t>How to change my mobile number?</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -398,7 +404,7 @@
     <col min="6" max="6" width="9.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +429,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,6 +457,9 @@
       </c>
       <c r="H2" t="s">
         <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Magicbricks/TestData/InputData.xlsx
+++ b/Magicbricks/TestData/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\180981\source\repos\SDET_SELENIUM_MODULE2\Magicbricks\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD93AF-9F79-4153-BF62-548A3E5810FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AD539-0B38-48EC-8682-6E6C4C31BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2640" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Searchdata" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>questionInput</t>
   </si>
   <si>
-    <t>How to change my mobile number?</t>
+    <t>number</t>
   </si>
 </sst>
 </file>

--- a/Magicbricks/TestData/InputData.xlsx
+++ b/Magicbricks/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\180981\source\repos\SDET_SELENIUM_MODULE2\Magicbricks\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AD539-0B38-48EC-8682-6E6C4C31BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB811997-061A-4427-87F9-5FC6D194A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>999997777</v>
+        <v>9999957777</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
